--- a/Doc/Feature list.xlsx
+++ b/Doc/Feature list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\5gSmallCellResearchAlg_L1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB18804-1012-46B6-B050-5B4A4E179FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0CFB63-CDD9-4C50-B655-0136029E2EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="293">
   <si>
     <t>Feature</t>
   </si>
@@ -914,6 +914,15 @@
   </si>
   <si>
     <t>FO in high speed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP CSIRS mapping in PDSCH data symbol</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>No consideration on NZP CSIRS configured by CSI-RS-Resource-Mobility 
+or aperiodic NZP CSIRS</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1400,19 +1409,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.25" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
@@ -1438,7 +1447,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>287</v>
       </c>
@@ -1448,7 +1457,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1469,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1481,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1493,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1505,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1508,7 +1517,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1520,7 +1529,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1532,7 +1541,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1553,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1556,7 +1565,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1577,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1589,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1592,7 +1601,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1613,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1616,7 +1625,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1637,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1649,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1652,7 +1661,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1664,7 +1673,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -1676,7 +1685,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1688,7 +1697,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1700,7 +1709,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1712,7 +1721,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1724,7 +1733,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1736,7 +1745,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +1757,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1760,7 +1769,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1772,7 +1781,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1784,7 +1793,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1796,7 +1805,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1808,7 +1817,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1820,7 +1829,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1832,7 +1841,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -1844,7 +1853,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -1856,7 +1865,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1877,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,7 +1889,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -1892,7 +1901,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -1904,7 +1913,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1925,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -1928,7 +1937,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>125</v>
       </c>
@@ -1940,7 +1949,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>288</v>
       </c>
@@ -1952,7 +1961,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>289</v>
       </c>
@@ -1964,7 +1973,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1984,15 +1993,15 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2006,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>246</v>
       </c>
@@ -2018,7 +2027,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
@@ -2030,7 +2039,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>248</v>
       </c>
@@ -2042,7 +2051,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>249</v>
       </c>
@@ -2054,7 +2063,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>250</v>
       </c>
@@ -2066,7 +2075,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>251</v>
       </c>
@@ -2078,7 +2087,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
@@ -2090,7 +2099,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>253</v>
       </c>
@@ -2102,7 +2111,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>254</v>
       </c>
@@ -2114,7 +2123,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>255</v>
       </c>
@@ -2126,7 +2135,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>256</v>
       </c>
@@ -2138,7 +2147,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>257</v>
       </c>
@@ -2150,7 +2159,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>258</v>
       </c>
@@ -2162,7 +2171,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>259</v>
       </c>
@@ -2174,7 +2183,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>260</v>
       </c>
@@ -2186,7 +2195,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>261</v>
       </c>
@@ -2198,7 +2207,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>262</v>
       </c>
@@ -2210,7 +2219,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2230,15 +2239,15 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
@@ -2264,7 +2273,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>261</v>
       </c>
@@ -2276,7 +2285,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>262</v>
       </c>
@@ -2288,7 +2297,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>246</v>
       </c>
@@ -2300,7 +2309,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>247</v>
       </c>
@@ -2312,7 +2321,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>248</v>
       </c>
@@ -2324,7 +2333,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>249</v>
       </c>
@@ -2336,7 +2345,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>250</v>
       </c>
@@ -2348,7 +2357,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>251</v>
       </c>
@@ -2360,7 +2369,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>252</v>
       </c>
@@ -2372,7 +2381,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>253</v>
       </c>
@@ -2384,7 +2393,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>254</v>
       </c>
@@ -2396,7 +2405,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>255</v>
       </c>
@@ -2408,7 +2417,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>256</v>
       </c>
@@ -2420,7 +2429,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>257</v>
       </c>
@@ -2432,7 +2441,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>264</v>
       </c>
@@ -2444,7 +2453,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>259</v>
       </c>
@@ -2456,7 +2465,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2476,15 +2485,15 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>265</v>
       </c>
@@ -2510,7 +2519,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>246</v>
       </c>
@@ -2522,7 +2531,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>247</v>
       </c>
@@ -2534,7 +2543,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>248</v>
       </c>
@@ -2546,7 +2555,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -2558,7 +2567,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>250</v>
       </c>
@@ -2570,7 +2579,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>251</v>
       </c>
@@ -2582,7 +2591,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
@@ -2594,7 +2603,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>253</v>
       </c>
@@ -2606,7 +2615,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>254</v>
       </c>
@@ -2618,7 +2627,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>255</v>
       </c>
@@ -2630,7 +2639,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>256</v>
       </c>
@@ -2642,7 +2651,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>257</v>
       </c>
@@ -2654,7 +2663,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>258</v>
       </c>
@@ -2666,7 +2675,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>259</v>
       </c>
@@ -2678,7 +2687,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>261</v>
       </c>
@@ -2690,7 +2699,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>262</v>
       </c>
@@ -2702,7 +2711,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>266</v>
       </c>
@@ -2714,7 +2723,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2734,15 +2743,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="100.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>267</v>
       </c>
@@ -2768,7 +2777,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>268</v>
       </c>
@@ -2780,7 +2789,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>269</v>
       </c>
@@ -2792,7 +2801,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>270</v>
       </c>
@@ -2804,7 +2813,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>271</v>
       </c>
@@ -2816,7 +2825,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>272</v>
       </c>
@@ -2828,7 +2837,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2840,7 +2849,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2852,7 +2861,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,7 +2873,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2876,7 +2885,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2888,7 +2897,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2908,15 +2917,15 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
@@ -2942,7 +2951,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>274</v>
       </c>
@@ -2954,7 +2963,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>275</v>
       </c>
@@ -2966,7 +2975,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>276</v>
       </c>
@@ -2978,7 +2987,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>277</v>
       </c>
@@ -2990,7 +2999,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>278</v>
       </c>
@@ -3002,7 +3011,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>279</v>
       </c>
@@ -3014,7 +3023,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>280</v>
       </c>
@@ -3026,7 +3035,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>281</v>
       </c>
@@ -3038,7 +3047,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>282</v>
       </c>
@@ -3050,7 +3059,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>283</v>
       </c>
@@ -3062,7 +3071,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>284</v>
       </c>
@@ -3074,7 +3083,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>285</v>
       </c>
@@ -3086,7 +3095,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3104,7 +3113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3115,19 +3124,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128EDBBB-D07E-46AB-92A5-4B0C3A55151C}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="54.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="54.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
@@ -3153,7 +3162,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -3165,7 +3174,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -3177,7 +3186,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -3189,7 +3198,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -3201,7 +3210,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -3225,7 +3234,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -3237,7 +3246,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -3249,7 +3258,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -3261,7 +3270,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -3273,7 +3282,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,7 +3294,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -3297,7 +3306,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -3309,7 +3318,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -3321,7 +3330,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>64</v>
       </c>
@@ -3333,7 +3342,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>65</v>
       </c>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -3357,7 +3366,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3369,7 +3378,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3381,7 +3390,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -3393,7 +3402,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -3405,7 +3414,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -3417,7 +3426,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -3429,7 +3438,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -3441,7 +3450,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,7 +3462,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -3465,7 +3474,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -3477,7 +3486,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3489,7 +3498,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3501,7 +3510,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -3513,7 +3522,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
@@ -3525,7 +3534,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -3537,7 +3546,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>83</v>
       </c>
@@ -3549,7 +3558,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
@@ -3561,7 +3570,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -3573,7 +3582,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -3585,7 +3594,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>87</v>
       </c>
@@ -3597,7 +3606,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
@@ -3609,7 +3618,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,7 +3630,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -3661,7 +3670,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3681,15 +3690,15 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>96</v>
       </c>
@@ -3715,7 +3724,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
@@ -3727,7 +3736,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -3739,7 +3748,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -3751,7 +3760,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
@@ -3763,7 +3772,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>290</v>
       </c>
@@ -3787,7 +3796,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>102</v>
       </c>
@@ -3799,7 +3808,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>103</v>
       </c>
@@ -3811,7 +3820,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -3823,7 +3832,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -3835,7 +3844,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -3847,7 +3856,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
@@ -3859,7 +3868,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
@@ -3871,7 +3880,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -3883,7 +3892,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
@@ -3895,7 +3904,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
@@ -3907,7 +3916,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
@@ -3919,7 +3928,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
@@ -3931,7 +3940,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
@@ -3943,7 +3952,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
@@ -3955,7 +3964,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>116</v>
       </c>
@@ -3967,7 +3976,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>117</v>
       </c>
@@ -3979,7 +3988,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>118</v>
       </c>
@@ -3991,7 +4000,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>119</v>
       </c>
@@ -4003,7 +4012,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -4015,7 +4024,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>122</v>
       </c>
@@ -4027,7 +4036,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
@@ -4039,7 +4048,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>124</v>
       </c>
@@ -4051,7 +4060,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4071,15 +4080,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4093,7 +4102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -4103,7 +4112,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
@@ -4113,7 +4122,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>127</v>
       </c>
@@ -4123,7 +4132,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -4133,7 +4142,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -4143,7 +4152,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
@@ -4153,7 +4162,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -4163,7 +4172,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
@@ -4173,7 +4182,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
@@ -4183,7 +4192,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -4193,7 +4202,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>141</v>
       </c>
@@ -4203,7 +4212,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
@@ -4213,7 +4222,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -4225,7 +4234,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -4235,7 +4244,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>144</v>
       </c>
@@ -4247,7 +4256,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>146</v>
       </c>
@@ -4257,7 +4266,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>147</v>
       </c>
@@ -4267,7 +4276,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>131</v>
       </c>
@@ -4277,7 +4286,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>132</v>
       </c>
@@ -4287,7 +4296,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
@@ -4297,7 +4306,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
@@ -4307,7 +4316,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -4317,7 +4326,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
@@ -4327,7 +4336,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>150</v>
       </c>
@@ -4337,7 +4346,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>151</v>
       </c>
@@ -4347,7 +4356,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>152</v>
       </c>
@@ -4357,7 +4366,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
@@ -4367,7 +4376,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4387,15 +4396,15 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>153</v>
       </c>
@@ -4421,7 +4430,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -4433,7 +4442,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -4445,7 +4454,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>156</v>
       </c>
@@ -4457,7 +4466,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
@@ -4469,7 +4478,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>158</v>
       </c>
@@ -4481,7 +4490,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>100</v>
       </c>
@@ -4493,7 +4502,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
@@ -4505,7 +4514,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -4517,7 +4526,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -4529,7 +4538,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>160</v>
       </c>
@@ -4541,7 +4550,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>161</v>
       </c>
@@ -4553,7 +4562,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>162</v>
       </c>
@@ -4565,7 +4574,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>163</v>
       </c>
@@ -4577,7 +4586,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>164</v>
       </c>
@@ -4589,7 +4598,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>165</v>
       </c>
@@ -4601,7 +4610,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -4613,7 +4622,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>167</v>
       </c>
@@ -4625,7 +4634,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>168</v>
       </c>
@@ -4637,7 +4646,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>170</v>
       </c>
@@ -4649,7 +4658,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -4661,7 +4670,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>171</v>
       </c>
@@ -4673,7 +4682,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
@@ -4685,7 +4694,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>173</v>
       </c>
@@ -4697,7 +4706,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>174</v>
       </c>
@@ -4709,7 +4718,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4729,15 +4738,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>175</v>
       </c>
@@ -4763,7 +4772,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>176</v>
       </c>
@@ -4775,7 +4784,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>177</v>
       </c>
@@ -4787,7 +4796,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>178</v>
       </c>
@@ -4799,7 +4808,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>179</v>
       </c>
@@ -4811,7 +4820,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
@@ -4823,7 +4832,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
@@ -4835,7 +4844,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>182</v>
       </c>
@@ -4847,7 +4856,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>183</v>
       </c>
@@ -4859,7 +4868,7 @@
       </c>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>184</v>
       </c>
@@ -4867,7 +4876,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>185</v>
       </c>
@@ -4879,7 +4888,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>186</v>
       </c>
@@ -4891,7 +4900,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>187</v>
       </c>
@@ -4903,7 +4912,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>188</v>
       </c>
@@ -4915,7 +4924,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>189</v>
       </c>
@@ -4927,7 +4936,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
@@ -4939,7 +4948,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>191</v>
       </c>
@@ -4951,7 +4960,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>192</v>
       </c>
@@ -4963,7 +4972,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>193</v>
       </c>
@@ -4975,7 +4984,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -4987,7 +4996,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5012,15 +5021,15 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5034,7 +5043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -5046,7 +5055,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>195</v>
       </c>
@@ -5058,7 +5067,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>196</v>
       </c>
@@ -5070,7 +5079,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>197</v>
       </c>
@@ -5082,7 +5091,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>198</v>
       </c>
@@ -5094,7 +5103,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>199</v>
       </c>
@@ -5106,7 +5115,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>200</v>
       </c>
@@ -5118,7 +5127,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>201</v>
       </c>
@@ -5130,7 +5139,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>202</v>
       </c>
@@ -5142,7 +5151,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>203</v>
       </c>
@@ -5154,7 +5163,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>204</v>
       </c>
@@ -5166,7 +5175,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>205</v>
       </c>
@@ -5178,7 +5187,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>206</v>
       </c>
@@ -5190,7 +5199,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>207</v>
       </c>
@@ -5202,7 +5211,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>208</v>
       </c>
@@ -5214,7 +5223,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>79</v>
       </c>
@@ -5226,7 +5235,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>209</v>
       </c>
@@ -5238,7 +5247,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>210</v>
       </c>
@@ -5250,7 +5259,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>211</v>
       </c>
@@ -5262,7 +5271,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -5274,7 +5283,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5294,15 +5303,15 @@
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5316,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>212</v>
       </c>
@@ -5328,7 +5337,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>213</v>
       </c>
@@ -5340,7 +5349,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
@@ -5352,7 +5361,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>215</v>
       </c>
@@ -5364,7 +5373,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>216</v>
       </c>
@@ -5376,7 +5385,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>217</v>
       </c>
@@ -5388,7 +5397,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>218</v>
       </c>
@@ -5400,7 +5409,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>219</v>
       </c>
@@ -5412,7 +5421,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>220</v>
       </c>
@@ -5424,7 +5433,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>221</v>
       </c>
@@ -5436,7 +5445,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -5448,7 +5457,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>223</v>
       </c>
@@ -5460,7 +5469,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>224</v>
       </c>
@@ -5472,7 +5481,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>225</v>
       </c>
@@ -5484,7 +5493,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>226</v>
       </c>
@@ -5496,7 +5505,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -5508,7 +5517,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
@@ -5520,7 +5529,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>229</v>
       </c>
@@ -5532,7 +5541,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>230</v>
       </c>
@@ -5544,7 +5553,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>231</v>
       </c>
@@ -5556,7 +5565,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>232</v>
       </c>
@@ -5568,7 +5577,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -5580,7 +5589,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5594,21 +5603,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCFEA1F-5A85-4E1E-88C0-A01F9BF18E9C}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>233</v>
       </c>
@@ -5634,7 +5643,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -5646,7 +5655,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -5658,7 +5667,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -5670,7 +5679,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -5682,7 +5691,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -5694,7 +5703,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>234</v>
       </c>
@@ -5706,7 +5715,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>235</v>
       </c>
@@ -5718,7 +5727,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>236</v>
       </c>
@@ -5730,7 +5739,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
@@ -5742,7 +5751,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>238</v>
       </c>
@@ -5754,7 +5763,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>239</v>
       </c>
@@ -5766,7 +5775,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>240</v>
       </c>
@@ -5778,7 +5787,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -5790,7 +5799,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -5802,7 +5811,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,7 +5823,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -5826,7 +5835,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
@@ -5838,7 +5847,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -5850,7 +5859,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -5862,7 +5871,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -5874,7 +5883,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>75</v>
       </c>
@@ -5886,7 +5895,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>241</v>
       </c>
@@ -5898,7 +5907,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>242</v>
       </c>
@@ -5910,7 +5919,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -5922,7 +5931,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -5934,7 +5943,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -5946,7 +5955,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>82</v>
       </c>
@@ -5958,7 +5967,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>243</v>
       </c>
@@ -5970,7 +5979,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
@@ -5978,65 +5987,77 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Doc/Feature list.xlsx
+++ b/Doc/Feature list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\5gSmallCellResearchAlg_L1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0CFB63-CDD9-4C50-B655-0136029E2EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815628A1-92B3-43E3-9687-2CE907A17E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="PDCCH TX" sheetId="7" r:id="rId7"/>
     <sheet name="CSIRS TX" sheetId="8" r:id="rId8"/>
     <sheet name="PDSCH TX" sheetId="10" r:id="rId9"/>
-    <sheet name="Util read" sheetId="11" r:id="rId10"/>
-    <sheet name="Util write" sheetId="12" r:id="rId11"/>
-    <sheet name="Util compare" sheetId="13" r:id="rId12"/>
-    <sheet name="Util reference" sheetId="15" r:id="rId13"/>
-    <sheet name="Util figure" sheetId="16" r:id="rId14"/>
-    <sheet name="Sheet5" sheetId="21" r:id="rId15"/>
+    <sheet name="simUlRef" sheetId="21" r:id="rId10"/>
+    <sheet name="simDlRef" sheetId="22" r:id="rId11"/>
+    <sheet name="Util read" sheetId="11" r:id="rId12"/>
+    <sheet name="Util write" sheetId="12" r:id="rId13"/>
+    <sheet name="Util compare" sheetId="13" r:id="rId14"/>
+    <sheet name="Util reference" sheetId="15" r:id="rId15"/>
+    <sheet name="Util figure" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="310">
   <si>
     <t>Feature</t>
   </si>
@@ -326,18 +327,12 @@
     <t>Parameters checking</t>
   </si>
   <si>
-    <t>TX verification with 3rd-party tool </t>
-  </si>
-  <si>
     <t>All in 'PUSCH TX'</t>
   </si>
   <si>
     <t>LS channel estimation</t>
   </si>
   <si>
-    <t>LMMSE channel estimation</t>
-  </si>
-  <si>
     <t>H interpolation</t>
   </si>
   <si>
@@ -374,9 +369,6 @@
     <t>MRC</t>
   </si>
   <si>
-    <t>IRC</t>
-  </si>
-  <si>
     <t>Demodulation QPSK</t>
   </si>
   <si>
@@ -506,9 +498,6 @@
     <t>Peak search for format0/1</t>
   </si>
   <si>
-    <t>LS channel estimation for format2/3/4</t>
-  </si>
-  <si>
     <t>De-timing spread for format1</t>
   </si>
   <si>
@@ -840,9 +829,6 @@
   </si>
   <si>
     <t>Threshold setting</t>
-  </si>
-  <si>
-    <t>Generate frequency reference data according to timing data from third party tool</t>
   </si>
   <si>
     <t>Bandwidth 5MHz, 10MHz, 20MHz, 25MHz, 30MHz, 40MHz, 50MHz, 60MHz, 70MHz, 80MHz, 90MHz, 100MHz</t>
@@ -923,6 +909,94 @@
   <si>
     <t>No consideration on NZP CSIRS configured by CSI-RS-Resource-Mobility 
 or aperiodic NZP CSIRS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel estimation frequency average</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel estimation sliding</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reed-muller encoding for format2/3/4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reed-muller decoding for format2/3/4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LS channel estimation for format2/3/4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel estimation frequency average for format2/3/4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX verification with SystemVue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate frequency reference data according to timing data from SystemVue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate reference data of PUSCH TX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate reference data of PUCCH TX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 port</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ports</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 ports</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import parametes from 5gSmallCellResearchAlg_L1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export txt data generated by SystemVue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate reference data of SSB TX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate reference data of PDCCH TX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate reference data of CSIRS TX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate reference data of PDSCH TX</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 ports</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1409,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1511,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>5</v>
@@ -1449,12 +1523,14 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1927,7 +2003,7 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>5</v>
@@ -1939,7 +2015,7 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>5</v>
@@ -1951,7 +2027,7 @@
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>8</v>
@@ -1963,7 +2039,7 @@
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>8</v>
@@ -1986,11 +2062,287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A86602F-417D-4E23-AE18-147A69D3B609}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82FEB4C-0860-488D-A725-C1BDA2C99B4C}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63423407-6D58-410B-9E9D-F43A6E93003A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2017,7 +2369,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2029,7 +2381,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2041,7 +2393,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2053,7 +2405,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2065,7 +2417,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -2077,7 +2429,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -2089,7 +2441,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -2101,7 +2453,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -2113,7 +2465,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -2125,7 +2477,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -2137,7 +2489,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -2149,7 +2501,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -2161,7 +2513,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -2173,7 +2525,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -2185,7 +2537,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -2197,7 +2549,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -2209,7 +2561,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -2231,12 +2583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6DE142-1902-4343-8BE5-6EC6E44382F1}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2615,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2275,7 +2627,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2287,7 +2639,7 @@
     </row>
     <row r="4" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2299,7 +2651,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -2311,7 +2663,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -2323,7 +2675,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -2335,7 +2687,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -2347,7 +2699,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
@@ -2359,7 +2711,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -2371,7 +2723,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -2383,7 +2735,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
@@ -2395,7 +2747,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
@@ -2407,7 +2759,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
@@ -2419,7 +2771,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>5</v>
@@ -2431,7 +2783,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>5</v>
@@ -2443,7 +2795,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -2455,7 +2807,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -2477,12 +2829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90380349-3CD4-44E6-97D1-2FDB4956FB57}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2509,7 +2861,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2521,7 +2873,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
@@ -2533,7 +2885,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -2545,7 +2897,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>5</v>
@@ -2557,7 +2909,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -2569,7 +2921,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
@@ -2581,7 +2933,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>5</v>
@@ -2593,7 +2945,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>5</v>
@@ -2605,7 +2957,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>5</v>
@@ -2617,7 +2969,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -2629,7 +2981,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>5</v>
@@ -2641,7 +2993,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>5</v>
@@ -2653,7 +3005,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>5</v>
@@ -2665,7 +3017,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>5</v>
@@ -2677,7 +3029,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -2689,7 +3041,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>5</v>
@@ -2701,7 +3053,7 @@
     </row>
     <row r="18" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>5</v>
@@ -2713,7 +3065,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -2735,12 +3087,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6939E1-94C4-47B5-B764-4F4AD0C07C2F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2767,7 +3119,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -2779,7 +3131,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2791,7 +3143,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2803,7 +3155,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2815,7 +3167,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -2827,7 +3179,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -2909,12 +3261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A294C35B-B713-49CB-847D-D042AD5A31AD}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2941,7 +3293,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2953,7 +3305,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2965,7 +3317,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2977,7 +3329,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2989,7 +3341,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -3001,7 +3353,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -3013,7 +3365,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -3025,7 +3377,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -3037,7 +3389,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -3049,7 +3401,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -3061,7 +3413,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -3073,7 +3425,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -3085,7 +3437,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -3102,19 +3454,6 @@
       <c r="D15" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A86602F-417D-4E23-AE18-147A69D3B609}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3124,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{128EDBBB-D07E-46AB-92A5-4B0C3A55151C}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3684,10 +4023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2095A624-0EBA-45AD-BDD3-FF1AFD51A5E3}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3714,7 +4053,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -3726,7 +4065,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -3738,7 +4077,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -3750,7 +4089,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -3762,7 +4101,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -3774,7 +4113,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -3786,10 +4125,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -3798,10 +4137,10 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>285</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -3810,7 +4149,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -3822,7 +4161,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -3834,7 +4173,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -3846,7 +4185,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -3858,7 +4197,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -3870,7 +4209,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -3882,7 +4221,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -3894,7 +4233,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -3906,10 +4245,10 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>108</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -3918,10 +4257,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
+        <v>290</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
@@ -3930,7 +4269,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -3942,7 +4281,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
@@ -3954,7 +4293,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
@@ -3966,7 +4305,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>5</v>
@@ -3978,7 +4317,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -3990,7 +4329,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -4002,31 +4341,31 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -4038,7 +4377,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>5</v>
@@ -4050,7 +4389,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>5</v>
@@ -4061,10 +4400,22 @@
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4074,10 +4425,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D101CDB1-F699-494C-AC2E-269901746CE8}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4104,7 +4455,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -4114,7 +4465,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -4124,7 +4475,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -4134,7 +4485,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -4154,7 +4505,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -4164,7 +4515,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>5</v>
@@ -4174,7 +4525,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -4184,7 +4535,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -4194,7 +4545,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -4204,7 +4555,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -4214,7 +4565,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -4224,19 +4575,19 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -4246,29 +4597,29 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -4278,7 +4629,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -4288,7 +4639,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -4298,7 +4649,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
@@ -4308,7 +4659,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
@@ -4318,7 +4669,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>5</v>
@@ -4328,7 +4679,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -4338,7 +4689,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -4348,7 +4699,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
@@ -4358,29 +4709,39 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>148</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>149</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4390,10 +4751,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3782B18D-B453-4DB7-BBAD-3B0F41F7D3B3}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4420,7 +4781,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -4432,7 +4793,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -4444,7 +4805,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>293</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -4456,7 +4817,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -4468,7 +4829,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -4480,7 +4841,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -4492,7 +4853,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -4504,7 +4865,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -4516,7 +4877,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -4528,7 +4889,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -4540,7 +4901,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -4552,7 +4913,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -4564,7 +4925,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -4576,7 +4937,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -4588,7 +4949,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -4600,7 +4961,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -4612,7 +4973,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -4624,7 +4985,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -4636,19 +4997,19 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
@@ -4660,19 +5021,19 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>5</v>
@@ -4684,7 +5045,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -4696,7 +5057,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -4708,7 +5069,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
@@ -4719,10 +5080,34 @@
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4735,7 +5120,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4762,7 +5147,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -4774,7 +5159,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -4786,7 +5171,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -4798,7 +5183,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -4810,7 +5195,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -4822,7 +5207,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -4834,7 +5219,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -4846,7 +5231,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -4858,7 +5243,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>5</v>
@@ -4870,7 +5255,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="16"/>
@@ -4878,7 +5263,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -4890,7 +5275,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -4902,19 +5287,19 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -4926,7 +5311,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -4938,7 +5323,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -4950,7 +5335,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -4962,7 +5347,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -4974,7 +5359,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -5018,7 +5403,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5045,7 +5430,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -5057,7 +5442,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -5069,7 +5454,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -5081,7 +5466,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -5093,7 +5478,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -5105,7 +5490,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -5117,7 +5502,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -5129,7 +5514,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -5141,7 +5526,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -5153,19 +5538,19 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -5177,7 +5562,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -5189,7 +5574,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -5201,7 +5586,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -5213,7 +5598,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -5237,7 +5622,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -5249,7 +5634,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -5261,7 +5646,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -5327,7 +5712,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -5339,7 +5724,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -5351,7 +5736,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -5363,7 +5748,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -5375,7 +5760,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -5387,7 +5772,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -5399,7 +5784,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -5411,7 +5796,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -5423,7 +5808,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -5435,7 +5820,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -5447,7 +5832,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -5459,7 +5844,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -5471,7 +5856,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -5483,7 +5868,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>5</v>
@@ -5495,7 +5880,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -5507,7 +5892,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>5</v>
@@ -5519,7 +5904,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -5531,7 +5916,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -5543,7 +5928,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -5555,7 +5940,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>5</v>
@@ -5567,7 +5952,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>5</v>
@@ -5606,7 +5991,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5633,7 +6018,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -5705,7 +6090,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -5717,7 +6102,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -5729,7 +6114,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -5741,7 +6126,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -5753,7 +6138,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>5</v>
@@ -5765,7 +6150,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>5</v>
@@ -5777,7 +6162,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>5</v>
@@ -5897,7 +6282,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -5909,7 +6294,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -5969,7 +6354,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>5</v>
@@ -5981,19 +6366,19 @@
     </row>
     <row r="31" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
@@ -6029,7 +6414,7 @@
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>5</v>

--- a/Doc/Feature list.xlsx
+++ b/Doc/Feature list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\5gSmallCellResearchAlg_L1\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815628A1-92B3-43E3-9687-2CE907A17E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE55B8-3515-4E97-88E9-70A73D60E75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="307">
   <si>
     <t>Feature</t>
   </si>
@@ -883,14 +883,6 @@
   </si>
   <si>
     <t>pucchSINR</t>
-  </si>
-  <si>
-    <t>Based on 3GPP 16.0.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Based on FAPI 10.04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Generation of case for implementation </t>
@@ -993,10 +985,6 @@
   </si>
   <si>
     <t>8 ports</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1481,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1499,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>5</v>
@@ -1523,22 +1511,22 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -1547,7 +1535,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -1559,7 +1547,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
@@ -1571,10 +1559,10 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -1583,10 +1571,10 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -1595,7 +1583,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -1607,7 +1595,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>5</v>
@@ -1619,7 +1607,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>5</v>
@@ -1631,7 +1619,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>5</v>
@@ -1643,7 +1631,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>5</v>
@@ -1655,7 +1643,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>5</v>
@@ -1667,7 +1655,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>5</v>
@@ -1679,7 +1667,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>5</v>
@@ -1691,7 +1679,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>5</v>
@@ -1703,7 +1691,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>5</v>
@@ -1715,7 +1703,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>5</v>
@@ -1727,7 +1715,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>5</v>
@@ -1739,7 +1727,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>5</v>
@@ -1751,7 +1739,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>5</v>
@@ -1763,7 +1751,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>5</v>
@@ -1775,7 +1763,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>5</v>
@@ -1787,7 +1775,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>5</v>
@@ -1799,10 +1787,10 @@
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>6</v>
@@ -1811,7 +1799,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>5</v>
@@ -1823,10 +1811,10 @@
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -1835,7 +1823,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>5</v>
@@ -1847,7 +1835,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>5</v>
@@ -1859,55 +1847,55 @@
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>5</v>
@@ -1919,7 +1907,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>5</v>
@@ -1931,31 +1919,31 @@
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>5</v>
@@ -1967,10 +1955,10 @@
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
@@ -1979,9 +1967,9 @@
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1991,9 +1979,9 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -2003,10 +1991,10 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
+        <v>281</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -2015,10 +2003,10 @@
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>5</v>
+        <v>282</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>6</v>
@@ -2026,34 +2014,10 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2093,7 +2057,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2105,7 +2069,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2117,7 +2081,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2129,7 +2093,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2141,7 +2105,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -2153,7 +2117,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -2165,7 +2129,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -2213,7 +2177,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -2225,7 +2189,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -2237,7 +2201,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -2249,7 +2213,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -2261,7 +2225,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -2273,7 +2237,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -2285,7 +2249,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
@@ -2297,7 +2261,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -2309,7 +2273,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -2321,7 +2285,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -3119,7 +3083,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
@@ -4077,7 +4041,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -4089,7 +4053,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -4137,7 +4101,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
@@ -4257,7 +4221,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>8</v>
@@ -4597,7 +4561,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>5</v>
@@ -4805,7 +4769,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -4817,7 +4781,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -4973,7 +4937,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>5</v>
@@ -6372,13 +6336,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
